--- a/reference/order.xlsx
+++ b/reference/order.xlsx
@@ -55,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -92,9 +92,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,15 +151,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -130,76 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,10 +220,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,7 +236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,43 +284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +314,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,6 +338,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,13 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,55 +374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +399,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -460,30 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,26 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,151 +507,180 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15"/>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2">
         <v>6</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1145,19 +1145,19 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1174,28 +1174,28 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -1250,28 +1250,28 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1326,28 +1326,28 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>2</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -1402,28 +1402,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10">
         <v>6</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1449,19 +1449,19 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1478,28 +1478,28 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>6</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1516,25 +1516,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>2</v>
@@ -1554,28 +1554,28 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1630,28 +1630,28 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1668,25 +1668,25 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1706,28 +1706,28 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18">
         <v>6</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1753,19 +1753,19 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1782,28 +1782,28 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1820,25 +1820,25 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -1858,28 +1858,28 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -1908,16 +1908,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1934,28 +1934,28 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1972,25 +1972,25 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2010,28 +2010,28 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>6</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2057,19 +2057,19 @@
         <v>3</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27">
         <v>6</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2086,28 +2086,28 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>6</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2124,25 +2124,25 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2238,28 +2238,28 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L33">
         <v>6</v>
@@ -2314,28 +2314,28 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K34">
         <v>6</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2361,19 +2361,19 @@
         <v>3</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35">
         <v>6</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2390,28 +2390,28 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>6</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2428,25 +2428,25 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>5</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -2466,28 +2466,28 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -2516,16 +2516,16 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2542,28 +2542,28 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2580,25 +2580,25 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L41">
         <v>6</v>
@@ -2618,28 +2618,28 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K42">
         <v>6</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2665,19 +2665,19 @@
         <v>3</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J43">
         <v>6</v>
       </c>
       <c r="K43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2694,28 +2694,28 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>6</v>
       </c>
       <c r="J44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2732,25 +2732,25 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>5</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -2770,28 +2770,28 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2820,16 +2820,16 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2846,28 +2846,28 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2884,25 +2884,25 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L49">
         <v>6</v>
@@ -2922,28 +2922,28 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K50">
         <v>6</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2969,19 +2969,19 @@
         <v>3</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J51">
         <v>6</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2998,28 +2998,28 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>6</v>
       </c>
       <c r="J52">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3036,25 +3036,25 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -3124,16 +3124,16 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55">
         <v>2</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3150,28 +3150,28 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56">
         <v>2</v>
       </c>
       <c r="J56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3188,25 +3188,25 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L57">
         <v>6</v>
@@ -3217,7 +3217,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3226,28 +3226,28 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K58">
         <v>6</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3273,19 +3273,19 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J59">
         <v>6</v>
       </c>
       <c r="K59">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3302,28 +3302,28 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>6</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3340,25 +3340,25 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>5</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -3378,28 +3378,28 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -3428,16 +3428,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>2</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3454,28 +3454,28 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3492,25 +3492,25 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L65">
         <v>6</v>
